--- a/biology/Histoire de la zoologie et de la botanique/Martin_Lindauer/Martin_Lindauer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Martin_Lindauer/Martin_Lindauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin Lindauer, né le 19 décembre 1918 à Wäldle (Bad Kohlgrub) et mort le 13 novembre 2008 à Munich[1], est un éthologiste allemand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin Lindauer, né le 19 décembre 1918 à Wäldle (Bad Kohlgrub) et mort le 13 novembre 2008 à Munich, est un éthologiste allemand.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève de Karl von Frisch, Lindauer fut le premier, en 1954, à étudier scientifiquement l'essaimage des abeilles.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) « Schwarmbienen auf Wohnungssuche », Zeitschrift für vergleichende Physiologie, vol. 37, 1955, p. 263-324</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thomas Seeley, « Comment les abeilles établissent une nouvelle colonie », Pour la science, no  62, décembre 1982, p. 14-22</t>
         </is>
